--- a/biology/Zoologie/Itapotihyla_langsdorffii/Itapotihyla_langsdorffii.xlsx
+++ b/biology/Zoologie/Itapotihyla_langsdorffii/Itapotihyla_langsdorffii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Itapotihyla langsdorffii, unique représentant du genre Itapotihyla, est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itapotihyla langsdorffii, unique représentant du genre Itapotihyla, est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[2],[3],[4] jusqu'à 700 m d'altitude :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre jusqu'à 700 m d'altitude :
 au Brésil dans la forêt atlantique de l'État de Bahia et du Minas Gerais à l'État de Santa Catarina ;
 dans le nord-est de l'Argentine dans la province de Misiones ;
 dans l'est du Paraguay.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Itapotihyla vient du Tupi-guarani itá, le rocher, du Tupi-guarani poti, la fleur, et du latin hyla, la rainette, en référence à la ressemblance de cette espèce avec les lichens ou les mousses[5]. L'espèce est nommée en l'honneur de Georg Heinrich von Langsdorff[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Itapotihyla vient du Tupi-guarani itá, le rocher, du Tupi-guarani poti, la fleur, et du latin hyla, la rainette, en référence à la ressemblance de cette espèce avec les lichens ou les mousses. L'espèce est nommée en l'honneur de Georg Heinrich von Langsdorff.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1841 : Erpétologie générale ou Histoire naturelle complète des reptiles, vol. 8, p. 1-792 (texte intégral).
 Faivovich, Haddad, Garcia, Frost, Campbell &amp; Wheeler, 2005 : Systematic review of the frog family Hylidae, with special reference to Hylinae: phylogenetic analysis and taxonomic revision. Bulletin of the American Museum of Natural History, vol. 294, p. 1-240 (texte intégral).</t>
